--- a/06_PPT_다루기/수험번호.xlsx
+++ b/06_PPT_다루기/수험번호.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이지은</t>
+          <t>박정희</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>민영자</t>
+          <t>민하은</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이현지</t>
+          <t>전현준</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>최정순</t>
+          <t>강성호</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>윤영미</t>
+          <t>김미정</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>강현정</t>
+          <t>전수진</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>남현준</t>
+          <t>박지훈</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>김성진</t>
+          <t>박재현</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>김미숙</t>
+          <t>최정훈</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김옥순</t>
+          <t>김지영</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
